--- a/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_vertical1_1/complete_local_linhom_sector_vertical1_1_all_result.xlsx
+++ b/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_vertical1_1/complete_local_linhom_sector_vertical1_1_all_result.xlsx
@@ -344,88 +344,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.488316798645784</v>
+        <v>0.0976510007718981</v>
       </c>
       <c r="C1" t="n">
-        <v>0.468868975038976</v>
+        <v>0.268900866979822</v>
       </c>
       <c r="D1" t="n">
-        <v>0.432333817706707</v>
+        <v>0.289876217063106</v>
       </c>
       <c r="E1" t="n">
-        <v>0.467998664676161</v>
+        <v>0.276750268211622</v>
       </c>
       <c r="F1" t="n">
-        <v>0.427576381592903</v>
+        <v>0.087706273174412</v>
       </c>
       <c r="G1" t="n">
-        <v>0.414728231356231</v>
+        <v>0.132805812054842</v>
       </c>
       <c r="H1" t="n">
-        <v>0.489405317812906</v>
+        <v>0.0854349123972243</v>
       </c>
       <c r="I1" t="n">
-        <v>0.419458389554915</v>
+        <v>0.140105348739765</v>
       </c>
       <c r="J1" t="n">
-        <v>0.616573662983703</v>
+        <v>0.192894032757101</v>
       </c>
       <c r="K1" t="n">
-        <v>0.474565487541218</v>
+        <v>0.0556290134627858</v>
       </c>
       <c r="L1" t="n">
-        <v>0.465337008932086</v>
+        <v>0.158305416661976</v>
       </c>
       <c r="M1" t="n">
-        <v>0.451876183581209</v>
+        <v>0.0864212062506141</v>
       </c>
       <c r="N1" t="n">
-        <v>0.443681720615154</v>
+        <v>0.0891688897081493</v>
       </c>
       <c r="O1" t="n">
-        <v>0.461880690487012</v>
+        <v>0.102506429892997</v>
       </c>
       <c r="P1" t="n">
-        <v>0.43647082367386</v>
+        <v>0.0576081354251549</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.463668469872244</v>
+        <v>0.121707709621659</v>
       </c>
       <c r="R1" t="n">
-        <v>0.411910151584885</v>
+        <v>0.0581600220808043</v>
       </c>
       <c r="S1" t="n">
-        <v>0.461735435197693</v>
+        <v>0.109066281177568</v>
       </c>
       <c r="T1" t="n">
-        <v>0.481228523234372</v>
+        <v>0.0497678355483547</v>
       </c>
       <c r="U1" t="n">
-        <v>0.423075274530572</v>
+        <v>0.0395862149264937</v>
       </c>
       <c r="V1" t="n">
-        <v>0.432112254815954</v>
+        <v>0.0470124894872608</v>
       </c>
       <c r="W1" t="n">
-        <v>0.427282455231614</v>
+        <v>0.062022670784271</v>
       </c>
       <c r="X1" t="n">
-        <v>0.431486660119768</v>
+        <v>0.0449441263981301</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.433755659313478</v>
+        <v>0.0765834196692215</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.445546912929217</v>
+        <v>0.073673584375793</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.463630653338456</v>
+        <v>0.0867850498801458</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.453957282289477</v>
+        <v>0.0510784460421392</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.503791369262155</v>
+        <v>0.119868244539336</v>
       </c>
     </row>
     <row r="2">
@@ -436,85 +436,85 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.493611784394225</v>
+        <v>0.282368764197569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.450740966632972</v>
+        <v>0.301782710124819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.46515188882652</v>
+        <v>0.289072067024524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.450762429768949</v>
+        <v>0.125841799890926</v>
       </c>
       <c r="G2" t="n">
-        <v>0.439224726836347</v>
+        <v>0.159971731967859</v>
       </c>
       <c r="H2" t="n">
-        <v>0.506919320079002</v>
+        <v>0.123476204757218</v>
       </c>
       <c r="I2" t="n">
-        <v>0.440454627071956</v>
+        <v>0.16569122485597</v>
       </c>
       <c r="J2" t="n">
-        <v>0.60567724287724</v>
+        <v>0.211094301390944</v>
       </c>
       <c r="K2" t="n">
-        <v>0.529820576570266</v>
+        <v>0.107255808726689</v>
       </c>
       <c r="L2" t="n">
-        <v>0.480112470561202</v>
+        <v>0.181170267421223</v>
       </c>
       <c r="M2" t="n">
-        <v>0.485925122258841</v>
+        <v>0.124869472071067</v>
       </c>
       <c r="N2" t="n">
-        <v>0.456027584674305</v>
+        <v>0.126027286174285</v>
       </c>
       <c r="O2" t="n">
-        <v>0.474547605945065</v>
+        <v>0.135849026857429</v>
       </c>
       <c r="P2" t="n">
-        <v>0.463514964093286</v>
+        <v>0.106091504227328</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.474141435959997</v>
+        <v>0.150379251850401</v>
       </c>
       <c r="R2" t="n">
-        <v>0.453094131149108</v>
+        <v>0.108164944065788</v>
       </c>
       <c r="S2" t="n">
-        <v>0.475670694903043</v>
+        <v>0.140916509635954</v>
       </c>
       <c r="T2" t="n">
-        <v>0.477090038374493</v>
+        <v>0.102797796721351</v>
       </c>
       <c r="U2" t="n">
-        <v>0.447878658667396</v>
+        <v>0.097730961122946</v>
       </c>
       <c r="V2" t="n">
-        <v>0.457002114173716</v>
+        <v>0.101177470361946</v>
       </c>
       <c r="W2" t="n">
-        <v>0.445376725009798</v>
+        <v>0.108142458094208</v>
       </c>
       <c r="X2" t="n">
-        <v>0.432368021528869</v>
+        <v>0.100263796839152</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.448658583125015</v>
+        <v>0.118111302166342</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.460721402721112</v>
+        <v>0.115892827120311</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.482233793617214</v>
+        <v>0.124657236470067</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.471495902759637</v>
+        <v>0.102732447941794</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.504502565913534</v>
+        <v>0.149965126524999</v>
       </c>
     </row>
     <row r="3">
@@ -528,82 +528,82 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.429608809064189</v>
+        <v>0.375805806961077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.442709076799226</v>
+        <v>0.364893740003869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.430848844364334</v>
+        <v>0.278698489053914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.409189275577292</v>
+        <v>0.293338647976849</v>
       </c>
       <c r="H3" t="n">
-        <v>0.494138351144235</v>
+        <v>0.279472283568953</v>
       </c>
       <c r="I3" t="n">
-        <v>0.419228880836222</v>
+        <v>0.296117106445978</v>
       </c>
       <c r="J3" t="n">
-        <v>0.612320292787321</v>
+        <v>0.319240241444835</v>
       </c>
       <c r="K3" t="n">
-        <v>0.502078193444844</v>
+        <v>0.270645427709504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.465467048753395</v>
+        <v>0.304513524967579</v>
       </c>
       <c r="M3" t="n">
-        <v>0.466999633893664</v>
+        <v>0.278003462865934</v>
       </c>
       <c r="N3" t="n">
-        <v>0.423355761396142</v>
+        <v>0.281310212210744</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4568702208163</v>
+        <v>0.284985941158777</v>
       </c>
       <c r="P3" t="n">
-        <v>0.438179897134306</v>
+        <v>0.271960351373291</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.457784341061689</v>
+        <v>0.289786095829193</v>
       </c>
       <c r="R3" t="n">
-        <v>0.42805181695434</v>
+        <v>0.272333053432368</v>
       </c>
       <c r="S3" t="n">
-        <v>0.456819882700456</v>
+        <v>0.285128068880021</v>
       </c>
       <c r="T3" t="n">
-        <v>0.462294884774519</v>
+        <v>0.272398769790102</v>
       </c>
       <c r="U3" t="n">
-        <v>0.42735787332737</v>
+        <v>0.270856823458045</v>
       </c>
       <c r="V3" t="n">
-        <v>0.435150136804843</v>
+        <v>0.272201392869299</v>
       </c>
       <c r="W3" t="n">
-        <v>0.422608511538956</v>
+        <v>0.273694682703677</v>
       </c>
       <c r="X3" t="n">
-        <v>0.41216125076482</v>
+        <v>0.271479611162246</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.425958543696884</v>
+        <v>0.277726238339175</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.439606641008009</v>
+        <v>0.275347015967244</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.465235020306933</v>
+        <v>0.277831355227114</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.453180343145132</v>
+        <v>0.271491684414724</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.491722542761338</v>
+        <v>0.288308477899565</v>
       </c>
     </row>
     <row r="4">
@@ -620,79 +620,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.40815502636274</v>
+        <v>0.380335248740265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.391734068542586</v>
+        <v>0.3005562946019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.365781648809472</v>
+        <v>0.31396301585977</v>
       </c>
       <c r="H4" t="n">
-        <v>0.470028804097828</v>
+        <v>0.301452738375399</v>
       </c>
       <c r="I4" t="n">
-        <v>0.373886590817883</v>
+        <v>0.317140234396761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.595363907516997</v>
+        <v>0.341186411095223</v>
       </c>
       <c r="K4" t="n">
-        <v>0.480898852579873</v>
+        <v>0.292434087958399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.432777358906205</v>
+        <v>0.321507561364458</v>
       </c>
       <c r="M4" t="n">
-        <v>0.435447792988433</v>
+        <v>0.302964475820852</v>
       </c>
       <c r="N4" t="n">
-        <v>0.381364451289639</v>
+        <v>0.301963310706046</v>
       </c>
       <c r="O4" t="n">
-        <v>0.422857267065198</v>
+        <v>0.303103538883723</v>
       </c>
       <c r="P4" t="n">
-        <v>0.400284799804143</v>
+        <v>0.295768347185038</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.42171965115286</v>
+        <v>0.312315176301951</v>
       </c>
       <c r="R4" t="n">
-        <v>0.387980874311258</v>
+        <v>0.293874403610642</v>
       </c>
       <c r="S4" t="n">
-        <v>0.420920721512607</v>
+        <v>0.307570401054224</v>
       </c>
       <c r="T4" t="n">
-        <v>0.430431956480656</v>
+        <v>0.294495461850387</v>
       </c>
       <c r="U4" t="n">
-        <v>0.386396158575217</v>
+        <v>0.295928659659367</v>
       </c>
       <c r="V4" t="n">
-        <v>0.395672833591827</v>
+        <v>0.291568703823266</v>
       </c>
       <c r="W4" t="n">
-        <v>0.380229492788668</v>
+        <v>0.297666475148738</v>
       </c>
       <c r="X4" t="n">
-        <v>0.362769585852302</v>
+        <v>0.290958458241407</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.385689387799623</v>
+        <v>0.296676315951568</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.398998111395142</v>
+        <v>0.300896187264496</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.435597347977765</v>
+        <v>0.303039316267844</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.417482529371084</v>
+        <v>0.295647991175812</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.46835367627336</v>
+        <v>0.3121821525306</v>
       </c>
     </row>
     <row r="5">
@@ -712,76 +712,76 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.411442007566602</v>
+        <v>0.281123653184681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.385803593336671</v>
+        <v>0.295017593322863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.479303731364409</v>
+        <v>0.280637019724868</v>
       </c>
       <c r="I5" t="n">
-        <v>0.396194507774022</v>
+        <v>0.298167267642419</v>
       </c>
       <c r="J5" t="n">
-        <v>0.587575888946021</v>
+        <v>0.320621430929905</v>
       </c>
       <c r="K5" t="n">
-        <v>0.489062408329167</v>
+        <v>0.273229708580238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.445741748361124</v>
+        <v>0.303103561174975</v>
       </c>
       <c r="M5" t="n">
-        <v>0.453715391704283</v>
+        <v>0.285789066292229</v>
       </c>
       <c r="N5" t="n">
-        <v>0.401458235692057</v>
+        <v>0.287078136125281</v>
       </c>
       <c r="O5" t="n">
-        <v>0.439877907812354</v>
+        <v>0.286284535068753</v>
       </c>
       <c r="P5" t="n">
-        <v>0.419065419709159</v>
+        <v>0.272595567713685</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.439342968504869</v>
+        <v>0.292387584877438</v>
       </c>
       <c r="R5" t="n">
-        <v>0.40611764048934</v>
+        <v>0.279216816154844</v>
       </c>
       <c r="S5" t="n">
-        <v>0.440124336253305</v>
+        <v>0.286875536126948</v>
       </c>
       <c r="T5" t="n">
-        <v>0.445421261931562</v>
+        <v>0.279069925066625</v>
       </c>
       <c r="U5" t="n">
-        <v>0.404727599445502</v>
+        <v>0.277612388430017</v>
       </c>
       <c r="V5" t="n">
-        <v>0.413282908720733</v>
+        <v>0.272438372188673</v>
       </c>
       <c r="W5" t="n">
-        <v>0.40048536894288</v>
+        <v>0.276584143073773</v>
       </c>
       <c r="X5" t="n">
-        <v>0.384184028056516</v>
+        <v>0.271055622737783</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.403257257701983</v>
+        <v>0.278211801956726</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.422050712348409</v>
+        <v>0.283750590814023</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.448560096034024</v>
+        <v>0.283480365366262</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.435109371059903</v>
+        <v>0.274207641819063</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.479035054497631</v>
+        <v>0.295099356972558</v>
       </c>
     </row>
     <row r="6">
@@ -804,73 +804,73 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.370977701926448</v>
+        <v>0.154282348951749</v>
       </c>
       <c r="H6" t="n">
-        <v>0.467164226716211</v>
+        <v>0.116074247721101</v>
       </c>
       <c r="I6" t="n">
-        <v>0.376874723626388</v>
+        <v>0.160060873238823</v>
       </c>
       <c r="J6" t="n">
-        <v>0.587393663405777</v>
+        <v>0.20714228848642</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485168527397499</v>
+        <v>0.0978528263712369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.432760013030264</v>
+        <v>0.175817195624914</v>
       </c>
       <c r="M6" t="n">
-        <v>0.432917464542436</v>
+        <v>0.117408771719865</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39025674303034</v>
+        <v>0.118744014914107</v>
       </c>
       <c r="O6" t="n">
-        <v>0.422980540354251</v>
+        <v>0.129134097856037</v>
       </c>
       <c r="P6" t="n">
-        <v>0.401762707373228</v>
+        <v>0.0973427010983494</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.423723428858944</v>
+        <v>0.144656123896173</v>
       </c>
       <c r="R6" t="n">
-        <v>0.387479709456701</v>
+        <v>0.0992670233478632</v>
       </c>
       <c r="S6" t="n">
-        <v>0.424991850000592</v>
+        <v>0.134457262390487</v>
       </c>
       <c r="T6" t="n">
-        <v>0.434761402702155</v>
+        <v>0.0943051038301503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.380401550512144</v>
+        <v>0.0889447505872155</v>
       </c>
       <c r="V6" t="n">
-        <v>0.399538788765742</v>
+        <v>0.092025307291417</v>
       </c>
       <c r="W6" t="n">
-        <v>0.380780539555181</v>
+        <v>0.100226554797183</v>
       </c>
       <c r="X6" t="n">
-        <v>0.371985582915236</v>
+        <v>0.0907281460114641</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.384640661402483</v>
+        <v>0.110370159976223</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.401038396452199</v>
+        <v>0.108484975355829</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.435887582308647</v>
+        <v>0.117785926169446</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.421007443838715</v>
+        <v>0.0941922870619982</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.465390734046272</v>
+        <v>0.143330606256933</v>
       </c>
     </row>
     <row r="7">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.450651462813124</v>
+        <v>0.153998764350877</v>
       </c>
       <c r="I7" t="n">
-        <v>0.349366137636459</v>
+        <v>0.189144503389655</v>
       </c>
       <c r="J7" t="n">
-        <v>0.604750804672447</v>
+        <v>0.22809025198607</v>
       </c>
       <c r="K7" t="n">
-        <v>0.473239498102846</v>
+        <v>0.138903181798818</v>
       </c>
       <c r="L7" t="n">
-        <v>0.412152595388371</v>
+        <v>0.200770819437433</v>
       </c>
       <c r="M7" t="n">
-        <v>0.41508000667433</v>
+        <v>0.153212454058426</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35537510141803</v>
+        <v>0.155222018271266</v>
       </c>
       <c r="O7" t="n">
-        <v>0.401163019282956</v>
+        <v>0.164249053714101</v>
       </c>
       <c r="P7" t="n">
-        <v>0.378788937784663</v>
+        <v>0.139731734985417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.403594924589392</v>
+        <v>0.176539157824026</v>
       </c>
       <c r="R7" t="n">
-        <v>0.363549983844361</v>
+        <v>0.140047085687494</v>
       </c>
       <c r="S7" t="n">
-        <v>0.404084259880125</v>
+        <v>0.168583312899319</v>
       </c>
       <c r="T7" t="n">
-        <v>0.412436452489974</v>
+        <v>0.139667923588926</v>
       </c>
       <c r="U7" t="n">
-        <v>0.358145426535242</v>
+        <v>0.133936208529465</v>
       </c>
       <c r="V7" t="n">
-        <v>0.37763690180591</v>
+        <v>0.137958748138258</v>
       </c>
       <c r="W7" t="n">
-        <v>0.354242542526538</v>
+        <v>0.142079438393832</v>
       </c>
       <c r="X7" t="n">
-        <v>0.339390313350807</v>
+        <v>0.137053481828752</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.360651896982352</v>
+        <v>0.149575457122339</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.37698073727203</v>
+        <v>0.146917496697112</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.418676586433338</v>
+        <v>0.153843106618819</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.399637162848168</v>
+        <v>0.137785084578229</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.450466726103218</v>
+        <v>0.173735722538463</v>
       </c>
     </row>
     <row r="8">
@@ -988,67 +988,67 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.461021708092781</v>
+        <v>0.158904567638359</v>
       </c>
       <c r="J8" t="n">
-        <v>0.606516598242017</v>
+        <v>0.206263755564326</v>
       </c>
       <c r="K8" t="n">
-        <v>0.533738740217923</v>
+        <v>0.0939232596111389</v>
       </c>
       <c r="L8" t="n">
-        <v>0.488479530153149</v>
+        <v>0.173851455024755</v>
       </c>
       <c r="M8" t="n">
-        <v>0.489428259120007</v>
+        <v>0.113963314388536</v>
       </c>
       <c r="N8" t="n">
-        <v>0.456493646737997</v>
+        <v>0.115391123929101</v>
       </c>
       <c r="O8" t="n">
-        <v>0.492278031328372</v>
+        <v>0.127462644345698</v>
       </c>
       <c r="P8" t="n">
-        <v>0.469543112096377</v>
+        <v>0.0929707397254433</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.492705687564648</v>
+        <v>0.141699157304565</v>
       </c>
       <c r="R8" t="n">
-        <v>0.459997145812234</v>
+        <v>0.0957199826370273</v>
       </c>
       <c r="S8" t="n">
-        <v>0.493457916832206</v>
+        <v>0.133214725438093</v>
       </c>
       <c r="T8" t="n">
-        <v>0.498368707275344</v>
+        <v>0.0912236249663842</v>
       </c>
       <c r="U8" t="n">
-        <v>0.456725621983948</v>
+        <v>0.0839210071731189</v>
       </c>
       <c r="V8" t="n">
-        <v>0.477792120216999</v>
+        <v>0.0899737335155609</v>
       </c>
       <c r="W8" t="n">
-        <v>0.457242819841279</v>
+        <v>0.0963406689272536</v>
       </c>
       <c r="X8" t="n">
-        <v>0.443997836484802</v>
+        <v>0.0888521948131259</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.459846879434502</v>
+        <v>0.106039198141371</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.476028174202616</v>
+        <v>0.105394282564539</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.49920844243112</v>
+        <v>0.114582016120754</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.489791965872517</v>
+        <v>0.0896104281703844</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.515885575445535</v>
+        <v>0.141963442501518</v>
       </c>
     </row>
     <row r="9">
@@ -1080,64 +1080,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.595815275452419</v>
+        <v>0.232668106624237</v>
       </c>
       <c r="K9" t="n">
-        <v>0.478278238558959</v>
+        <v>0.14427175675163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.431093867771264</v>
+        <v>0.204847019068376</v>
       </c>
       <c r="M9" t="n">
-        <v>0.423812901166155</v>
+        <v>0.157033717646873</v>
       </c>
       <c r="N9" t="n">
-        <v>0.368809280179902</v>
+        <v>0.159074339352246</v>
       </c>
       <c r="O9" t="n">
-        <v>0.410368795269777</v>
+        <v>0.168000202928207</v>
       </c>
       <c r="P9" t="n">
-        <v>0.387826750234003</v>
+        <v>0.14606598268561</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.41003169779158</v>
+        <v>0.180438820273312</v>
       </c>
       <c r="R9" t="n">
-        <v>0.373701384179578</v>
+        <v>0.145241161016619</v>
       </c>
       <c r="S9" t="n">
-        <v>0.409372554311632</v>
+        <v>0.172220134702374</v>
       </c>
       <c r="T9" t="n">
-        <v>0.421046694244923</v>
+        <v>0.142809254479415</v>
       </c>
       <c r="U9" t="n">
-        <v>0.369485745428063</v>
+        <v>0.138236472966068</v>
       </c>
       <c r="V9" t="n">
-        <v>0.384842361161682</v>
+        <v>0.142421868285233</v>
       </c>
       <c r="W9" t="n">
-        <v>0.365035750418324</v>
+        <v>0.147844137295964</v>
       </c>
       <c r="X9" t="n">
-        <v>0.350950148231341</v>
+        <v>0.141609635754069</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.371977840763705</v>
+        <v>0.154465880036397</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.385228677642035</v>
+        <v>0.151185504245912</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.426457753750255</v>
+        <v>0.158840562371331</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.405733185790588</v>
+        <v>0.144243361442094</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.461519440242312</v>
+        <v>0.178281905344393</v>
       </c>
     </row>
     <row r="10">
@@ -1172,61 +1172,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.621851248944164</v>
+        <v>0.198428181294993</v>
       </c>
       <c r="L10" t="n">
-        <v>0.600456713642903</v>
+        <v>0.242241229463954</v>
       </c>
       <c r="M10" t="n">
-        <v>0.605243822779642</v>
+        <v>0.206962246010019</v>
       </c>
       <c r="N10" t="n">
-        <v>0.584591888468303</v>
+        <v>0.207081007252236</v>
       </c>
       <c r="O10" t="n">
-        <v>0.606967592227666</v>
+        <v>0.213433125030093</v>
       </c>
       <c r="P10" t="n">
-        <v>0.598064581342773</v>
+        <v>0.197247165373589</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.606017567892782</v>
+        <v>0.22248358609872</v>
       </c>
       <c r="R10" t="n">
-        <v>0.594431014981099</v>
+        <v>0.198033611263248</v>
       </c>
       <c r="S10" t="n">
-        <v>0.608992355811226</v>
+        <v>0.216644493228133</v>
       </c>
       <c r="T10" t="n">
-        <v>0.594961281830465</v>
+        <v>0.195147124143008</v>
       </c>
       <c r="U10" t="n">
-        <v>0.586926932593822</v>
+        <v>0.192878617403118</v>
       </c>
       <c r="V10" t="n">
-        <v>0.596089784354461</v>
+        <v>0.194728530923559</v>
       </c>
       <c r="W10" t="n">
-        <v>0.592877949118131</v>
+        <v>0.19823035321214</v>
       </c>
       <c r="X10" t="n">
-        <v>0.585496105841542</v>
+        <v>0.194182448831358</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.585301320778206</v>
+        <v>0.203836979450569</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.603817881349449</v>
+        <v>0.203053916879202</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.59724903232263</v>
+        <v>0.206911558070819</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.604826091706237</v>
+        <v>0.195546904040703</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.606096493092156</v>
+        <v>0.221549625912284</v>
       </c>
     </row>
     <row r="11">
@@ -1264,58 +1264,58 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.516434235880791</v>
+        <v>0.164475282050465</v>
       </c>
       <c r="M11" t="n">
-        <v>0.496924428783129</v>
+        <v>0.0943824576983708</v>
       </c>
       <c r="N11" t="n">
-        <v>0.472348471790694</v>
+        <v>0.0977591032982179</v>
       </c>
       <c r="O11" t="n">
-        <v>0.514780707431229</v>
+        <v>0.109064907073435</v>
       </c>
       <c r="P11" t="n">
-        <v>0.476198023325193</v>
+        <v>0.06756090464834</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.506884734995055</v>
+        <v>0.127497849971182</v>
       </c>
       <c r="R11" t="n">
-        <v>0.467402766391719</v>
+        <v>0.0720647244260783</v>
       </c>
       <c r="S11" t="n">
-        <v>0.496010825807558</v>
+        <v>0.114703492792023</v>
       </c>
       <c r="T11" t="n">
-        <v>0.515903891644846</v>
+        <v>0.0678485033419423</v>
       </c>
       <c r="U11" t="n">
-        <v>0.46666713306873</v>
+        <v>0.0569486189599906</v>
       </c>
       <c r="V11" t="n">
-        <v>0.460751370789009</v>
+        <v>0.0600082041814757</v>
       </c>
       <c r="W11" t="n">
-        <v>0.470613537934554</v>
+        <v>0.0735621540593234</v>
       </c>
       <c r="X11" t="n">
-        <v>0.466275362003378</v>
+        <v>0.0582839643226121</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.473692479777507</v>
+        <v>0.0857163286370646</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.49744606421008</v>
+        <v>0.0843135598900029</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.503159783419957</v>
+        <v>0.0953626370896208</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.491899644935323</v>
+        <v>0.0643556851253444</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.525960495158415</v>
+        <v>0.127050431648549</v>
       </c>
     </row>
     <row r="12">
@@ -1356,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.470825661392028</v>
+        <v>0.174870675821587</v>
       </c>
       <c r="N12" t="n">
-        <v>0.424123293087668</v>
+        <v>0.176409642130902</v>
       </c>
       <c r="O12" t="n">
-        <v>0.462792085361827</v>
+        <v>0.184231671864194</v>
       </c>
       <c r="P12" t="n">
-        <v>0.442638549447513</v>
+        <v>0.163838510502531</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.462991882357597</v>
+        <v>0.194875674070995</v>
       </c>
       <c r="R12" t="n">
-        <v>0.432178932123711</v>
+        <v>0.165270292606215</v>
       </c>
       <c r="S12" t="n">
-        <v>0.462100757178093</v>
+        <v>0.187458239511576</v>
       </c>
       <c r="T12" t="n">
-        <v>0.469992088577903</v>
+        <v>0.162385211196618</v>
       </c>
       <c r="U12" t="n">
-        <v>0.427137313074396</v>
+        <v>0.158269992170256</v>
       </c>
       <c r="V12" t="n">
-        <v>0.444526260053697</v>
+        <v>0.161890640513124</v>
       </c>
       <c r="W12" t="n">
-        <v>0.425260990882139</v>
+        <v>0.165463575133554</v>
       </c>
       <c r="X12" t="n">
-        <v>0.412310443859187</v>
+        <v>0.159918093947299</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.429294111658667</v>
+        <v>0.171097591553028</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.444704220544844</v>
+        <v>0.169579413681423</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.475707409966649</v>
+        <v>0.176519559821218</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.458818642159649</v>
+        <v>0.161661435104192</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.495420278397793</v>
+        <v>0.193790850099224</v>
       </c>
     </row>
     <row r="13">
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.433435500802332</v>
+        <v>0.116334579880056</v>
       </c>
       <c r="O13" t="n">
-        <v>0.468753089598359</v>
+        <v>0.127759473976137</v>
       </c>
       <c r="P13" t="n">
-        <v>0.437292204520017</v>
+        <v>0.0941358204142897</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.468070388891544</v>
+        <v>0.142745041296277</v>
       </c>
       <c r="R13" t="n">
-        <v>0.427164965246112</v>
+        <v>0.0970216117313428</v>
       </c>
       <c r="S13" t="n">
-        <v>0.460497552601311</v>
+        <v>0.132288457039456</v>
       </c>
       <c r="T13" t="n">
-        <v>0.482224066320775</v>
+        <v>0.0940717068560069</v>
       </c>
       <c r="U13" t="n">
-        <v>0.428854177274041</v>
+        <v>0.0853774780036547</v>
       </c>
       <c r="V13" t="n">
-        <v>0.439874042263562</v>
+        <v>0.0901902459476788</v>
       </c>
       <c r="W13" t="n">
-        <v>0.422920189681128</v>
+        <v>0.0971783187495689</v>
       </c>
       <c r="X13" t="n">
-        <v>0.41820186555085</v>
+        <v>0.089421803079078</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.426095395341894</v>
+        <v>0.106839741004689</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.441819054676443</v>
+        <v>0.106914465032242</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.474982616793086</v>
+        <v>0.116147573074038</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.455775070279216</v>
+        <v>0.0909563339601398</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.500741413619893</v>
+        <v>0.141719820916942</v>
       </c>
     </row>
     <row r="14">
@@ -1540,49 +1540,49 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.415474632190804</v>
+        <v>0.129946707919618</v>
       </c>
       <c r="P14" t="n">
-        <v>0.394761454429742</v>
+        <v>0.0987111667192002</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.418227978492997</v>
+        <v>0.14525618072501</v>
       </c>
       <c r="R14" t="n">
-        <v>0.380787606720653</v>
+        <v>0.100398789247687</v>
       </c>
       <c r="S14" t="n">
-        <v>0.41774737334763</v>
+        <v>0.135652988831883</v>
       </c>
       <c r="T14" t="n">
-        <v>0.422350382256813</v>
+        <v>0.0943336579040045</v>
       </c>
       <c r="U14" t="n">
-        <v>0.375653821475266</v>
+        <v>0.0887601352585665</v>
       </c>
       <c r="V14" t="n">
-        <v>0.392065485575363</v>
+        <v>0.0932051991960843</v>
       </c>
       <c r="W14" t="n">
-        <v>0.371948479225169</v>
+        <v>0.100678947336718</v>
       </c>
       <c r="X14" t="n">
-        <v>0.358218678000442</v>
+        <v>0.0918927190517471</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.376247228784686</v>
+        <v>0.1102217783462</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.392059395078248</v>
+        <v>0.108552744811019</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.429171311791938</v>
+        <v>0.118138158770202</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.413027894099806</v>
+        <v>0.0947768632695269</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.457600875595821</v>
+        <v>0.14441277361957</v>
       </c>
     </row>
     <row r="15">
@@ -1632,46 +1632,46 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.432923517962953</v>
+        <v>0.110586540732601</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.450353064796112</v>
+        <v>0.153621061180946</v>
       </c>
       <c r="R15" t="n">
-        <v>0.421143155201648</v>
+        <v>0.111588954002239</v>
       </c>
       <c r="S15" t="n">
-        <v>0.451519894433554</v>
+        <v>0.144158156828618</v>
       </c>
       <c r="T15" t="n">
-        <v>0.460182166896927</v>
+        <v>0.106916346582694</v>
       </c>
       <c r="U15" t="n">
-        <v>0.41654118355456</v>
+        <v>0.102811508056458</v>
       </c>
       <c r="V15" t="n">
-        <v>0.43136819546541</v>
+        <v>0.106047714717828</v>
       </c>
       <c r="W15" t="n">
-        <v>0.413687725380823</v>
+        <v>0.112892146822013</v>
       </c>
       <c r="X15" t="n">
-        <v>0.406073628184774</v>
+        <v>0.10510385069233</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.419284065103897</v>
+        <v>0.121339195336822</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.429059730615437</v>
+        <v>0.1202651583883</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.464755252117889</v>
+        <v>0.128261391327087</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.447764949948115</v>
+        <v>0.107583478812816</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.490933270713165</v>
+        <v>0.152315513861815</v>
       </c>
     </row>
     <row r="16">
@@ -1724,43 +1724,43 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.434395545938382</v>
+        <v>0.128769518816095</v>
       </c>
       <c r="R16" t="n">
-        <v>0.399548352073403</v>
+        <v>0.0745452548063621</v>
       </c>
       <c r="S16" t="n">
-        <v>0.434795381545472</v>
+        <v>0.117064650484115</v>
       </c>
       <c r="T16" t="n">
-        <v>0.446104421688265</v>
+        <v>0.0667452853497886</v>
       </c>
       <c r="U16" t="n">
-        <v>0.39147872348375</v>
+        <v>0.0590481984026764</v>
       </c>
       <c r="V16" t="n">
-        <v>0.407685232201923</v>
+        <v>0.0636230995611548</v>
       </c>
       <c r="W16" t="n">
-        <v>0.391485328167988</v>
+        <v>0.0749358849083208</v>
       </c>
       <c r="X16" t="n">
-        <v>0.381942597960471</v>
+        <v>0.0618206928022906</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.396770120507502</v>
+        <v>0.0872194968941414</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.414590861419199</v>
+        <v>0.0860056445061232</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.446856842477221</v>
+        <v>0.0977314175671831</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.431132359056811</v>
+        <v>0.0666732051971929</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.475576059226528</v>
+        <v>0.128327663511081</v>
       </c>
     </row>
     <row r="17">
@@ -1816,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.422054967749615</v>
+        <v>0.1291292951399</v>
       </c>
       <c r="S17" t="n">
-        <v>0.450676431006978</v>
+        <v>0.158086502967651</v>
       </c>
       <c r="T17" t="n">
-        <v>0.45884906593612</v>
+        <v>0.125434868060853</v>
       </c>
       <c r="U17" t="n">
-        <v>0.417516448400562</v>
+        <v>0.121593399787933</v>
       </c>
       <c r="V17" t="n">
-        <v>0.429609573812286</v>
+        <v>0.123255946010205</v>
       </c>
       <c r="W17" t="n">
-        <v>0.414843509845585</v>
+        <v>0.130643233188985</v>
       </c>
       <c r="X17" t="n">
-        <v>0.40121749951621</v>
+        <v>0.122495876524501</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.42152067499303</v>
+        <v>0.138029245540868</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4312151457897</v>
+        <v>0.136600140147414</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.464627319052489</v>
+        <v>0.143927520236442</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.448018036938796</v>
+        <v>0.126044014085161</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.49279708108796</v>
+        <v>0.165912613345593</v>
       </c>
     </row>
     <row r="18">
@@ -1908,37 +1908,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.427841565659292</v>
+        <v>0.118404895951868</v>
       </c>
       <c r="T18" t="n">
-        <v>0.442235450956915</v>
+        <v>0.06881588704395</v>
       </c>
       <c r="U18" t="n">
-        <v>0.378322485976432</v>
+        <v>0.0622694006701444</v>
       </c>
       <c r="V18" t="n">
-        <v>0.400579805215631</v>
+        <v>0.067739020973782</v>
       </c>
       <c r="W18" t="n">
-        <v>0.380482322456126</v>
+        <v>0.0777041493643393</v>
       </c>
       <c r="X18" t="n">
-        <v>0.377453978808402</v>
+        <v>0.0661571730230237</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.383584231252588</v>
+        <v>0.0895204434864764</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.400567785825777</v>
+        <v>0.0880563422647893</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.441261092242267</v>
+        <v>0.098435765999983</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.425421638204737</v>
+        <v>0.0695482523589722</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.469462686024804</v>
+        <v>0.128529133264993</v>
       </c>
     </row>
     <row r="19">
@@ -2000,34 +2000,34 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.455153226113968</v>
+        <v>0.113733310561682</v>
       </c>
       <c r="U19" t="n">
-        <v>0.412161342581301</v>
+        <v>0.109733978227529</v>
       </c>
       <c r="V19" t="n">
-        <v>0.425358816532345</v>
+        <v>0.113925955938647</v>
       </c>
       <c r="W19" t="n">
-        <v>0.413740804968165</v>
+        <v>0.120017234365434</v>
       </c>
       <c r="X19" t="n">
-        <v>0.398065271601134</v>
+        <v>0.11386970035296</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.419171153279885</v>
+        <v>0.127949671646653</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.424227627324914</v>
+        <v>0.126023675376153</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.461333549153258</v>
+        <v>0.134063417038924</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.446121805243442</v>
+        <v>0.114756677725038</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.490925830811424</v>
+        <v>0.15758263791234</v>
       </c>
     </row>
     <row r="20">
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.423387391958127</v>
+        <v>0.0480647215131522</v>
       </c>
       <c r="V20" t="n">
-        <v>0.425162928822223</v>
+        <v>0.055453123170685</v>
       </c>
       <c r="W20" t="n">
-        <v>0.414049488288729</v>
+        <v>0.0693444617370498</v>
       </c>
       <c r="X20" t="n">
-        <v>0.414008250778938</v>
+        <v>0.0535131410795749</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.418538027030296</v>
+        <v>0.0828485820316066</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.423254040720131</v>
+        <v>0.0791991805785469</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.459824560883655</v>
+        <v>0.0926969452240701</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.439622432951136</v>
+        <v>0.0606128885472534</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4916108712355</v>
+        <v>0.125135540098435</v>
       </c>
     </row>
     <row r="21">
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.392075995958584</v>
+        <v>0.0483163594431482</v>
       </c>
       <c r="W21" t="n">
-        <v>0.373687221801092</v>
+        <v>0.0621715400112407</v>
       </c>
       <c r="X21" t="n">
-        <v>0.352481416745999</v>
+        <v>0.0461843245738881</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.376430380106871</v>
+        <v>0.0769612959150394</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.38745824338347</v>
+        <v>0.0735392167539381</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.441405018544865</v>
+        <v>0.0871049041667908</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.424042769509568</v>
+        <v>0.051292878306113</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.469446175860579</v>
+        <v>0.121482518978343</v>
       </c>
     </row>
     <row r="22">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.386643051784575</v>
+        <v>0.0668856166323597</v>
       </c>
       <c r="X22" t="n">
-        <v>0.377293723614579</v>
+        <v>0.0518655196968315</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.391818508771499</v>
+        <v>0.0805779012300048</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.408649601727349</v>
+        <v>0.0783505472626815</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.442741491004662</v>
+        <v>0.0914403380901587</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.42152185561264</v>
+        <v>0.0573647759020373</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.471078363723929</v>
+        <v>0.123691580232736</v>
       </c>
     </row>
     <row r="23">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.362302628818684</v>
+        <v>0.0642524274117502</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.37512924627561</v>
+        <v>0.0897758720778161</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.388453095409991</v>
+        <v>0.0879363782857977</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.425631949069343</v>
+        <v>0.09864052542033</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.408368303982507</v>
+        <v>0.0698549819952595</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.459934684420548</v>
+        <v>0.129388858816346</v>
       </c>
     </row>
     <row r="24">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3657769465017</v>
+        <v>0.0796679834492737</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.386822435197323</v>
+        <v>0.0796445975190703</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.425666554169313</v>
+        <v>0.0925007355739528</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.395060285207063</v>
+        <v>0.0564433866233827</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.456277850412596</v>
+        <v>0.125061092893095</v>
       </c>
     </row>
     <row r="25">
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.401455462066806</v>
+        <v>0.0988740442128507</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.434477487207616</v>
+        <v>0.110859868609528</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.418609888040043</v>
+        <v>0.0832384007219848</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.465783852289041</v>
+        <v>0.139073984925291</v>
       </c>
     </row>
     <row r="26">
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.448816688418832</v>
+        <v>0.107322133409455</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.427247050099807</v>
+        <v>0.0815518937893067</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.480360317892137</v>
+        <v>0.136969835638347</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.459656047169715</v>
+        <v>0.0922928797064624</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.493211933245277</v>
+        <v>0.143126129887364</v>
       </c>
     </row>
     <row r="28">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.484219062789099</v>
+        <v>0.124891149008182</v>
       </c>
     </row>
     <row r="29">
@@ -2939,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C1" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="D1" t="n">
         <v>135</v>
       </c>
       <c r="E1" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>315</v>
       </c>
       <c r="I1" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1" t="n">
         <v>315</v>
-      </c>
-      <c r="J1" t="n">
-        <v>0</v>
       </c>
       <c r="K1" t="n">
         <v>180</v>
@@ -2984,7 +2984,7 @@
         <v>270</v>
       </c>
       <c r="Q1" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="R1" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="T1" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="X1" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="n">
         <v>270</v>
@@ -3014,13 +3014,13 @@
         <v>225</v>
       </c>
       <c r="AA1" t="n">
+        <v>225</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>270</v>
+      </c>
+      <c r="AC1" t="n">
         <v>180</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>225</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -3031,76 +3031,76 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>270</v>
+      </c>
+      <c r="E2" t="n">
+        <v>315</v>
+      </c>
+      <c r="F2" t="n">
         <v>90</v>
       </c>
-      <c r="D2" t="n">
-        <v>270</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>315</v>
+      </c>
+      <c r="L2" t="n">
+        <v>270</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>315</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="n">
         <v>225</v>
       </c>
-      <c r="G2" t="n">
-        <v>180</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>225</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225</v>
-      </c>
-      <c r="N2" t="n">
-        <v>45</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>180</v>
-      </c>
       <c r="R2" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="S2" t="n">
         <v>225</v>
       </c>
       <c r="T2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U2" t="n">
         <v>180</v>
       </c>
-      <c r="U2" t="n">
-        <v>135</v>
-      </c>
       <c r="V2" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
         <v>270</v>
       </c>
       <c r="Y2" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="Z2" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3135,13 +3135,13 @@
         <v>270</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
         <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>180</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>135</v>
       </c>
       <c r="O3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="P3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="n">
         <v>225</v>
       </c>
       <c r="R3" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="S3" t="n">
         <v>270</v>
@@ -3180,10 +3180,10 @@
         <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y3" t="n">
         <v>135</v>
@@ -3195,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="AB3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -3218,13 +3218,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G4" t="n">
         <v>180</v>
       </c>
       <c r="H4" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I4" t="n">
         <v>135</v>
@@ -3236,7 +3236,7 @@
         <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>270</v>
@@ -3245,31 +3245,31 @@
         <v>45</v>
       </c>
       <c r="O4" t="n">
+        <v>180</v>
+      </c>
+      <c r="P4" t="n">
         <v>135</v>
       </c>
-      <c r="P4" t="n">
-        <v>180</v>
-      </c>
       <c r="Q4" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="R4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="S4" t="n">
         <v>315</v>
       </c>
       <c r="T4" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="U4" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
         <v>180</v>
       </c>
       <c r="W4" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>180</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
         <v>135</v>
@@ -3322,13 +3322,13 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
         <v>270</v>
       </c>
       <c r="M5" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>45</v>
       </c>
       <c r="P5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="n">
         <v>225</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S5" t="n">
         <v>270</v>
@@ -3358,10 +3358,10 @@
         <v>135</v>
       </c>
       <c r="W5" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Y5" t="n">
         <v>135</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
       </c>
       <c r="AC5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I6" t="n">
         <v>270</v>
@@ -3411,16 +3411,16 @@
         <v>315</v>
       </c>
       <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
         <v>135</v>
       </c>
-      <c r="L6" t="n">
-        <v>180</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="O6" t="n">
         <v>315</v>
@@ -3429,28 +3429,28 @@
         <v>270</v>
       </c>
       <c r="Q6" t="n">
+        <v>90</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>90</v>
+      </c>
+      <c r="T6" t="n">
+        <v>315</v>
+      </c>
+      <c r="U6" t="n">
+        <v>45</v>
+      </c>
+      <c r="V6" t="n">
+        <v>315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>270</v>
+      </c>
+      <c r="X6" t="n">
         <v>135</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>135</v>
-      </c>
-      <c r="T6" t="n">
-        <v>270</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
-        <v>270</v>
-      </c>
-      <c r="X6" t="n">
-        <v>45</v>
       </c>
       <c r="Y6" t="n">
         <v>225</v>
@@ -3459,10 +3459,10 @@
         <v>225</v>
       </c>
       <c r="AA6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
         <v>135</v>
@@ -3497,10 +3497,10 @@
         <v>270</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L7" t="n">
         <v>135</v>
@@ -3518,13 +3518,13 @@
         <v>225</v>
       </c>
       <c r="Q7" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="R7" t="n">
         <v>315</v>
       </c>
       <c r="S7" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="T7" t="n">
         <v>270</v>
@@ -3533,16 +3533,16 @@
         <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="W7" t="n">
         <v>225</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="Z7" t="n">
         <v>180</v>
@@ -3551,10 +3551,10 @@
         <v>135</v>
       </c>
       <c r="AB7" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="AC7" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="L8" t="n">
         <v>225</v>
@@ -3607,16 +3607,16 @@
         <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>45</v>
       </c>
       <c r="S8" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
         <v>135</v>
@@ -3628,7 +3628,7 @@
         <v>315</v>
       </c>
       <c r="X8" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="n">
         <v>315</v>
@@ -3637,13 +3637,13 @@
         <v>270</v>
       </c>
       <c r="AA8" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AC8" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
@@ -3681,16 +3681,16 @@
         <v>270</v>
       </c>
       <c r="L9" t="n">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
         <v>315</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="T9" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U9" t="n">
         <v>135</v>
@@ -3714,25 +3714,25 @@
         <v>45</v>
       </c>
       <c r="W9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X9" t="n">
         <v>225</v>
       </c>
       <c r="Y9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z9" t="n">
         <v>315</v>
       </c>
       <c r="AA9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
         <v>225</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="n">
         <v>180</v>
@@ -3791,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T10" t="n">
         <v>135</v>
@@ -3800,10 +3800,10 @@
         <v>135</v>
       </c>
       <c r="V10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
         <v>225</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -3859,25 +3859,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>225</v>
       </c>
       <c r="N11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O11" t="n">
         <v>135</v>
-      </c>
-      <c r="O11" t="n">
-        <v>180</v>
       </c>
       <c r="P11" t="n">
         <v>90</v>
       </c>
       <c r="Q11" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="R11" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="S11" t="n">
         <v>270</v>
@@ -3886,19 +3886,19 @@
         <v>180</v>
       </c>
       <c r="U11" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="V11" t="n">
         <v>135</v>
       </c>
       <c r="W11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X11" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>45</v>
@@ -3969,22 +3969,22 @@
         <v>180</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="T12" t="n">
+        <v>180</v>
+      </c>
+      <c r="U12" t="n">
+        <v>270</v>
+      </c>
+      <c r="V12" t="n">
         <v>135</v>
-      </c>
-      <c r="U12" t="n">
-        <v>270</v>
-      </c>
-      <c r="V12" t="n">
-        <v>90</v>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>90</v>
@@ -3993,13 +3993,13 @@
         <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4043,19 +4043,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O13" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="P13" t="n">
         <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>315</v>
       </c>
       <c r="U13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V13" t="n">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>225</v>
@@ -4082,10 +4082,10 @@
         <v>180</v>
       </c>
       <c r="AA13" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AC13" t="n">
         <v>135</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="R14" t="n">
         <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="T14" t="n">
         <v>45</v>
@@ -4156,25 +4156,25 @@
         <v>180</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="Y14" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>315</v>
       </c>
       <c r="AA14" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>225</v>
@@ -4230,28 +4230,28 @@
         <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
         <v>45</v>
       </c>
       <c r="S15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
         <v>135</v>
       </c>
       <c r="V15" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>315</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="n">
         <v>315</v>
@@ -4260,13 +4260,13 @@
         <v>270</v>
       </c>
       <c r="AA15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AB15" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -4319,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="R16" t="n">
         <v>90</v>
       </c>
       <c r="S16" t="n">
+        <v>180</v>
+      </c>
+      <c r="T16" t="n">
+        <v>90</v>
+      </c>
+      <c r="U16" t="n">
         <v>135</v>
-      </c>
-      <c r="T16" t="n">
-        <v>45</v>
-      </c>
-      <c r="U16" t="n">
-        <v>180</v>
       </c>
       <c r="V16" t="n">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>315</v>
@@ -4423,28 +4423,28 @@
         <v>315</v>
       </c>
       <c r="V17" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="n">
         <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="n">
         <v>180</v>
       </c>
       <c r="AC17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4503,37 +4503,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>90</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>45</v>
+      </c>
+      <c r="V18" t="n">
+        <v>315</v>
+      </c>
+      <c r="W18" t="n">
+        <v>270</v>
+      </c>
+      <c r="X18" t="n">
         <v>135</v>
       </c>
-      <c r="T18" t="n">
-        <v>315</v>
-      </c>
-      <c r="U18" t="n">
-        <v>90</v>
-      </c>
-      <c r="V18" t="n">
-        <v>270</v>
-      </c>
-      <c r="W18" t="n">
-        <v>270</v>
-      </c>
-      <c r="X18" t="n">
-        <v>45</v>
-      </c>
       <c r="Y18" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Z18" t="n">
         <v>225</v>
       </c>
       <c r="AA18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AC18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -4598,31 +4598,31 @@
         <v>270</v>
       </c>
       <c r="U19" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="V19" t="n">
         <v>225</v>
       </c>
       <c r="W19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="X19" t="n">
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA19" t="n">
         <v>90</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>135</v>
       </c>
       <c r="AB19" t="n">
         <v>180</v>
       </c>
       <c r="AC19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20" t="n">
         <v>315</v>
       </c>
       <c r="W20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AA20" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC20" t="n">
         <v>180</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="W21" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="X21" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
         <v>135</v>
       </c>
       <c r="AA21" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -4874,7 +4874,7 @@
         <v>315</v>
       </c>
       <c r="X22" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="n">
         <v>315</v>
@@ -4886,7 +4886,7 @@
         <v>225</v>
       </c>
       <c r="AB22" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AC22" t="n">
         <v>225</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -5245,7 +5245,7 @@
         <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27">
